--- a/02-Projeto/01-ResolveAi/02-GQA/02-PlanoGQA.xlsx
+++ b/02-Projeto/01-ResolveAi/02-GQA/02-PlanoGQA.xlsx
@@ -14,17 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+  <si>
+    <t>Cronograma de Gerência de Requisitos</t>
+  </si>
+  <si>
+    <t>Papel</t>
+  </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>Papel</t>
-  </si>
-  <si>
-    <t>Cronograma de Gerência de Requisitos</t>
-  </si>
-  <si>
     <t>Atividade</t>
   </si>
   <si>
@@ -34,31 +34,46 @@
     <t>Produtos</t>
   </si>
   <si>
+    <t>Responsáveis</t>
+  </si>
+  <si>
+    <t>Analista da Qualidade</t>
+  </si>
+  <si>
+    <t>Data Início</t>
+  </si>
+  <si>
+    <t>Data Fim</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comentários</t>
+  </si>
+  <si>
     <t>Auditar processo e seus produtos</t>
   </si>
   <si>
-    <t>Responsáveis</t>
-  </si>
-  <si>
-    <t>Analista da Qualidade</t>
-  </si>
-  <si>
-    <t>Data Início</t>
-  </si>
-  <si>
-    <t>Data Fim</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Comentários</t>
+    <t>Renan e Luana</t>
   </si>
   <si>
     <t>Avaliar os produtos do processo</t>
   </si>
   <si>
-    <t>Renan e Luana</t>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Gerente responsável pelo processo</t>
+  </si>
+  <si>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>Equipe responsável pelo processo</t>
+  </si>
+  <si>
+    <t>Iolanda, Matheus e Weverton</t>
   </si>
   <si>
     <t>Checklist de avaliação do processo e seus produtos</t>
@@ -67,9 +82,6 @@
     <t>Planejar correção das não-conformidades</t>
   </si>
   <si>
-    <t>Matheus</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -88,49 +100,40 @@
     <t>Documento de cálculos dos indicadores</t>
   </si>
   <si>
-    <t>Gerente responsável pelo processo</t>
-  </si>
-  <si>
-    <t>Equipe responsável pelo processo</t>
-  </si>
-  <si>
     <t>Registrar não-conformidades</t>
   </si>
   <si>
-    <t>Iolanda, Matheus e Weverton</t>
-  </si>
-  <si>
     <t>Lista de não-conformidades</t>
   </si>
   <si>
+    <t>Monitoramento da Gerência de Requisitos</t>
+  </si>
+  <si>
     <t>Comunicar o gerente responsável pelo processo</t>
   </si>
   <si>
+    <t>Reunião</t>
+  </si>
+  <si>
+    <t>Objetivos</t>
+  </si>
+  <si>
+    <t>Resumo</t>
+  </si>
+  <si>
+    <t>Verificar o andamento da audição do processo</t>
+  </si>
+  <si>
+    <t>Verificar o andamento da correção das não-conformidades</t>
+  </si>
+  <si>
     <t>Planejar a correção das não-conformidades</t>
   </si>
   <si>
     <t>Plano de correção das não conformidades</t>
   </si>
   <si>
-    <t>Monitoramento da Gerência de Requisitos</t>
-  </si>
-  <si>
     <t>Realizar as correções necessárias</t>
-  </si>
-  <si>
-    <t>Reunião</t>
-  </si>
-  <si>
-    <t>Objetivos</t>
-  </si>
-  <si>
-    <t>Resumo</t>
-  </si>
-  <si>
-    <t>Verificar o andamento da audição do processo</t>
-  </si>
-  <si>
-    <t>Verificar o andamento da correção das não-conformidades</t>
   </si>
   <si>
     <t>Avaliar a correção realizada</t>
@@ -178,6 +181,17 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -189,6 +203,14 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -198,25 +220,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -283,31 +286,31 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -325,7 +328,7 @@
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -370,114 +373,116 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9">
         <v>43054.0</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>43060.0</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2.0</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>43060.0</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3.0</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9">
         <v>43060.0</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>43061.0</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4.0</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9">
         <v>43062.0</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -501,111 +506,111 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1.0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>15</v>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="18"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>2.0</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21">
         <v>3.0</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17">
         <v>4.0</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -632,35 +637,35 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>14</v>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -681,50 +686,50 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="9">
+        <v>43057.0</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="10">
-        <v>43057.0</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>43061.0</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/02-Projeto/01-ResolveAi/02-GQA/02-PlanoGQA.xlsx
+++ b/02-Projeto/01-ResolveAi/02-GQA/02-PlanoGQA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Tarefas" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Papel</t>
   </si>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,6 +282,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,7 +616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -717,7 +722,7 @@
       <c r="C8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -727,17 +732,16 @@
       <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="D9" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -747,7 +751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/02-Projeto/01-ResolveAi/02-GQA/02-PlanoGQA.xlsx
+++ b/02-Projeto/01-ResolveAi/02-GQA/02-PlanoGQA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tarefas" sheetId="2" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Planejar a correção das não-conformidades</t>
   </si>
   <si>
-    <t>Plano de correção das não conformidades</t>
-  </si>
-  <si>
     <t>Realizar as correções necessárias</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Comunicar os interessados</t>
+  </si>
+  <si>
+    <t>Plano de correção das não-conformidades</t>
   </si>
 </sst>
 </file>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -706,7 +706,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
@@ -720,7 +720,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>16</v>
@@ -730,7 +730,7 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="18"/>
     </row>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
